--- a/Py-Scripts/students/students_db.xlsx
+++ b/Py-Scripts/students/students_db.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -28,22 +28,13 @@
     <t>Saket Fulewar</t>
   </si>
   <si>
-    <t>33.jpg</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>6931d84323e7db3220b60a82</t>
-  </si>
-  <si>
-    <t>Ketan Kurve</t>
-  </si>
-  <si>
-    <t>63.jpg</t>
-  </si>
-  <si>
-    <t>63</t>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6932cbe8c8634c0d0c5c3fc1</t>
   </si>
 </sst>
 </file>
@@ -420,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -448,20 +439,6 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
